--- a/web-scraping-pc.xlsx
+++ b/web-scraping-pc.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$657.999</t>
+          <t>$699.999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,153 +487,153 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pc Gamer /fornite /dota 2/lol/csgo - Amd A8 //8gb Ram/ssd240</t>
+          <t>Pc Gamer Amd Ryzen 5 4650g 8gb 3200mh 256gb Nvme Vega</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$265.000</t>
+          <t>$433.413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pc Gamer /fornite /dota 2/lol/csgo - Amd A8 //8gb Ram/ssd240</t>
+          <t>Pc Gamer Amd Ryzen 5 4650g 8gb 3200mh 256gb Nvme Vega</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 5 4650g 8gb 3200mh 256gb Nvme Vega</t>
+          <t>Pc Gamer Ryzen 5 4600g 16gb 2x8 3200mhz 500gb Nvme - Acuario</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$355.999</t>
+          <t>$453.268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 5 4650g 8gb 3200mh 256gb Nvme Vega</t>
+          <t>Pc Gamer Ryzen 5 4600g 16gb 2x8 3200mhz 500gb Nvme - Acuario</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 480</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$284.840</t>
+          <t>$1.104.298</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 480</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 5 4600g 16gb 2x8 3200mhz 500gb Nvme - Acuario</t>
+          <t>Pc Gamer Amd Ryzen 3 3200g 8gb Ddr4 Ssd 240gb 500w  -acuario</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$453.268</t>
+          <t>$384.542</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 5 4600g 16gb 2x8 3200mhz 500gb Nvme - Acuario</t>
+          <t>Pc Gamer Amd Ryzen 3 3200g 8gb Ddr4 Ssd 240gb 500w  -acuario</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 240</t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g Ram 32gb  960g Ssd Wifi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$276.231</t>
+          <t>$897.599</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 240</t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g Ram 32gb  960g Ssd Wifi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
+          <t>Pc Armada Gamer Intel Core I5 10400 1tb 16gb Ram Ddr4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$1.104.298</t>
+          <t>$536.787</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
+          <t>Pc Armada Gamer Intel Core I5 10400 1tb 16gb Ram Ddr4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g 6/12 Nucleos 16gb + Juego</t>
+          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$899.999</t>
+          <t>$246.184</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g 6/12 Nucleos 16gb + Juego</t>
+          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 480 Radeon Vega</t>
+          <t>Pc Gamer Ryzen 3 3200g Msi A320 8gb 2400 Ssd 240gb</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$402.149</t>
+          <t>$343.920</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 480 Radeon Vega</t>
+          <t>Pc Gamer Ryzen 3 3200g Msi A320 8gb 2400 Ssd 240gb</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$777.990</t>
+          <t>$993.798</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$993.798</t>
+          <t>$700.190</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,663 +657,663 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
+          <t>Pc Cpu Computadora Armada Intel Dual Core 8gb Ssd 240 Wifi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$246.184</t>
+          <t>$348.797</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
+          <t>Pc Cpu Computadora Armada Intel Dual Core 8gb Ssd 240 Wifi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 5 5600g 16gb A520m Ssd 240gb</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$450.242</t>
+          <t>$700.190</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 5 5600g 16gb A520m Ssd 240gb</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Intel Core I5 10400 1tb 16gb Ram Ddr4</t>
+          <t>Computadora Pc Gamer Intel I5 Rx 6700xt 500g Ssd M2 16g Ram</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$536.787</t>
+          <t>$999.999</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Intel Core I5 10400 1tb 16gb Ram Ddr4</t>
+          <t>Computadora Pc Gamer Intel I5 Rx 6700xt 500g Ssd M2 16g Ram</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pc Cpu Computadora Armada Intel Dual Core 8gb Ssd 240 Wifi</t>
+          <t xml:space="preserve">Pc Gamer Intel I9 13ava Z790 64gb M.2 2tb Sata 2tb Rtx 4090 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$272.017</t>
+          <t>$5.712.526</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pc Cpu Computadora Armada Intel Dual Core 8gb Ssd 240 Wifi</t>
+          <t xml:space="preserve">Pc Gamer Intel I9 13ava Z790 64gb M.2 2tb Sata 2tb Rtx 4090 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pc Gamer A10 9700 //ddr4 8gb //ssd 240// Radeon//gab 600w</t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g 32gb 3200 480g Nvme</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$289.000</t>
+          <t>$723.799</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pc Gamer A10 9700 //ddr4 8gb //ssd 240// Radeon//gab 600w</t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g 32gb 3200 480g Nvme</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 240 Rx Vega</t>
+          <t>Pc Armada Intel Core I3 10105 480gb Ssd 8gb Ddr4 Win 10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$563.978</t>
+          <t>$450.497</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 240 Rx Vega</t>
+          <t>Pc Armada Intel Core I3 10105 480gb Ssd 8gb Ddr4 Win 10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme480 Rx Vega</t>
+          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$583.116</t>
+          <t>$587.450</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme480 Rx Vega</t>
+          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 7 5700g Ram 32gb  960g Ssd Wifi</t>
+          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd Fortnite Csgo Lol</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$844.799</t>
+          <t>$337.261</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 7 5700g Ram 32gb  960g Ssd Wifi</t>
+          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd Fortnite Csgo Lol</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
+          <t>Pc Gamer Intel I7 16gb 1tb O Ssd Gt1030 2gb + Adic. - Plus</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$429.011</t>
+          <t>$1.128.145</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
+          <t>Pc Gamer Intel I7 16gb 1tb O Ssd Gt1030 2gb + Adic. - Plus</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/480gb/off+win10/wifi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$700.190</t>
+          <t>$799.999</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/480gb/off+win10/wifi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 10400 8gb M2 480 Core X6 Thread X12</t>
+          <t>Pc Gamer Ryzen 5 4600g A320m 8gb Ssd 240gb Gabinete Kit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$413.715</t>
+          <t>$407.122</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 10400 8gb M2 480 Core X6 Thread X12</t>
+          <t>Pc Gamer Ryzen 5 4600g A320m 8gb Ssd 240gb Gabinete Kit</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 240 Radeon Vega</t>
+          <t xml:space="preserve">Pc Gamer Aerocool Ryzen 5 5600g 8gb Ram Ssd 240gb </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$388.950</t>
+          <t>$416.000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 240 Radeon Vega</t>
+          <t xml:space="preserve">Pc Gamer Aerocool Ryzen 5 5600g 8gb Ram Ssd 240gb </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pc Armada Intel Core I3 10105 480gb Ssd 8gb Ddr4 Win 10</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g Ssd 480gb 16gb Ddr4 Prem</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$450.497</t>
+          <t>$685.858</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pc Armada Intel Core I3 10105 480gb Ssd 8gb Ddr4 Win 10</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g Ssd 480gb 16gb Ddr4 Prem</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Computadora Pc Gamer Intel I5 Rx 6700xt 500g Ssd M2 16g Ram</t>
+          <t xml:space="preserve">Pc Gamer Armada Intel I5 11400 16gb Nvme 512 Core X6 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$899.999</t>
+          <t>$593.864</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Computadora Pc Gamer Intel I5 Rx 6700xt 500g Ssd M2 16g Ram</t>
+          <t xml:space="preserve">Pc Gamer Armada Intel I5 11400 16gb Nvme 512 Core X6 </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 3 3200g 8gb Ddr4 Ssd 240gb 500w  -acuario</t>
+          <t>Pc Intel Gamer I5 10th Rx6400 4gb Gddr6 Ssd480 Ram 16gb Hdmi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$384.542</t>
+          <t>$1.199.999</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 3 3200g 8gb Ddr4 Ssd 240gb 500w  -acuario</t>
+          <t>Pc Intel Gamer I5 10th Rx6400 4gb Gddr6 Ssd480 Ram 16gb Hdmi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Intel I9 13ava Z790 64gb M.2 2tb Sata 2tb Rtx 4090 </t>
+          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ssd 480 Radeon Vega</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$5.541.151</t>
+          <t>$612.333</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Intel I9 13ava Z790 64gb M.2 2tb Sata 2tb Rtx 4090 </t>
+          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ssd 480 Radeon Vega</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 7 5700g 32gb 3200 480g Nvme</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 480 Radeon Vega</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$723.299</t>
+          <t>$402.149</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 7 5700g 32gb 3200 480g Nvme</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 480 Radeon Vega</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
+          <t>Pc Gamer Cpu Amd Ryzen 5 5600g 6/12 Nucleos 16g Wifi 480g</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$622.066</t>
+          <t>$519.499</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
+          <t>Pc Gamer Cpu Amd Ryzen 5 5600g 6/12 Nucleos 16g Wifi 480g</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pc Intel I5 10400 (10ma Gneracion ) 8gb Ram // Ssd 240 //600</t>
+          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 480</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$439.000</t>
+          <t>$284.840</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pc Intel I5 10400 (10ma Gneracion ) 8gb Ram // Ssd 240 //600</t>
+          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 480</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 5 5600g 16gb Ssd Nvme 1 Tb Wifi </t>
+          <t>Pc Gamer Xpg Intel Core I5-11600k 16gb M.2 500gb + Ssd 480gb</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$735.141</t>
+          <t>$611.188</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 5 5600g 16gb Ssd Nvme 1 Tb Wifi </t>
+          <t>Pc Gamer Xpg Intel Core I5-11600k 16gb M.2 500gb + Ssd 480gb</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
+          <t>Pc Armada Cpu Amd Full Gamer Ryzen 3 3200g 16gb Ddr4 1080p</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$356.967</t>
+          <t>$729.999</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
+          <t>Pc Armada Cpu Amd Full Gamer Ryzen 3 3200g 16gb Ddr4 1080p</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/480gb/off+win10/wifi</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g 16gb Vega 7</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$535.999</t>
+          <t>$496.199</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/480gb/off+win10/wifi</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g 16gb Vega 7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd - 4 Nucleos</t>
+          <t>Pc Gamer Diseño Cpu Amd Ryzen 9 7900 Am5 16gb M2 1tb</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$303.047</t>
+          <t>$1.241.499</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd - 4 Nucleos</t>
+          <t>Pc Gamer Diseño Cpu Amd Ryzen 9 7900 Am5 16gb M2 1tb</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 5 5600g 16gb Ssd Nvme 1 Tb Wifi </t>
+          <t>Pc Armada Gamer Intel Core I3 12100 Con 8gb Ram Y Ssd 240gb</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$506.994</t>
+          <t>$484.535</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 5 5600g 16gb Ssd Nvme 1 Tb Wifi </t>
+          <t>Pc Armada Gamer Intel Core I3 12100 Con 8gb Ram Y Ssd 240gb</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd Fortnite Csgo Lol</t>
+          <t xml:space="preserve">Pc Armada Pro Intel 3.6ghz Dual Core Ssd 240 Ram 8gb Ddr4 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$303.534</t>
+          <t>$419.999</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd Fortnite Csgo Lol</t>
+          <t xml:space="preserve">Pc Armada Pro Intel 3.6ghz Dual Core Ssd 240 Ram 8gb Ddr4 </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Pro Intel 3.6ghz Dual Core Ssd 240 Ram 8gb Ddr4 </t>
+          <t>Pc Armada Gamer Intel Dual Core Hd Graphics Ram Ddr4 Hdmi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$407.399</t>
+          <t>$339.999</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Pro Intel 3.6ghz Dual Core Ssd 240 Ram 8gb Ddr4 </t>
+          <t>Pc Armada Gamer Intel Dual Core Hd Graphics Ram Ddr4 Hdmi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pc Gamer Escritorio Cpu Amd Computadora Nueva Armada Ssd</t>
+          <t>Pc Gamer Ryzen 7 5700g 32gb Vega 8 960gb Wifi + Led Gamer 24</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$331.028</t>
+          <t>$1.280.400</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pc Gamer Escritorio Cpu Amd Computadora Nueva Armada Ssd</t>
+          <t>Pc Gamer Ryzen 7 5700g 32gb Vega 8 960gb Wifi + Led Gamer 24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ssd 480 Radeon Vega</t>
+          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ddr4 Ssd 480gb Prem</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$549.999</t>
+          <t>$759.274</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ssd 480 Radeon Vega</t>
+          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ddr4 Ssd 480gb Prem</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Aerocool Ryzen 5 5600g 8gb Ram Ssd 240gb </t>
+          <t>Pc Gamer Armada Intel I5 11400 16gb Ssd 1 Tb Core X6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$416.000</t>
+          <t>$613.121</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Aerocool Ryzen 5 5600g 8gb Ram Ssd 240gb </t>
+          <t>Pc Gamer Armada Intel I5 11400 16gb Ssd 1 Tb Core X6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pc Gamer Intel I7 16gb 1tb O Ssd Gt1030 2gb + Adic. - Plus</t>
+          <t>Pc Gamer Armada Amd Ryzen 5 5600g 8gb Ddr4 Ssd 240gb Premium</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$1.015.330</t>
+          <t>$701.314</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pc Gamer Intel I7 16gb 1tb O Ssd Gt1030 2gb + Adic. - Plus</t>
+          <t>Pc Gamer Armada Amd Ryzen 5 5600g 8gb Ddr4 Ssd 240gb Premium</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pc Armada Cpu Amd Full Gamer Ryzen 3 3200g 16gb Ddr4 1080p</t>
+          <t>Pc Armada Gamer Amd Ryzen 3 3200g 16gb Ddr4 Ssd Nvme 240 Gb</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$729.999</t>
+          <t>$486.897</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pc Armada Cpu Amd Full Gamer Ryzen 3 3200g 16gb Ddr4 1080p</t>
+          <t>Pc Armada Gamer Amd Ryzen 3 3200g 16gb Ddr4 Ssd Nvme 240 Gb</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 480</t>
+          <t>Pc Intel Armada I5 10400 10th Gen Hd 1tb Hdmi 8gb Ddr4 Win10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$413.018</t>
+          <t>$599.999</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 480</t>
+          <t>Pc Intel Armada I5 10400 10th Gen Hd 1tb Hdmi 8gb Ddr4 Win10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pc Cpu Juegos Gamer Intel I7 + 16gb + 1tb O Ssd + Gt 1030 2gb</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ssd 480 Juego Regalo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$642.783</t>
+          <t>$599.999</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pc Cpu Juegos Gamer Intel I7 + 16gb + 1tb O Ssd + Gt 1030 2gb</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ssd 480 Juego Regalo</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 7 5700g 16gb Ssd Nvme 1 Tb Wifi </t>
+          <t>Pc Armada Gamer Amd Athlon 3000g Ssd 240 8gb Radeon Rx Vega</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$951.168</t>
+          <t>$272.307</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 7 5700g 16gb Ssd Nvme 1 Tb Wifi </t>
+          <t>Pc Armada Gamer Amd Athlon 3000g Ssd 240 8gb Radeon Rx Vega</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Pc Gamer Cpu Amd Ryzen 5 5600g 6/12 Nucleos 16g Wifi 480g</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ddr4 Nvme 240 Rx Vega</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$521.999</t>
+          <t>$375.381</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pc Gamer Cpu Amd Ryzen 5 5600g 6/12 Nucleos 16g Wifi 480g</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ddr4 Nvme 240 Rx Vega</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 5 4600g A320m 8gb Ssd 240gb Gabinete Kit</t>
+          <t>Pc Gamer Armada Intel I3 10100 8gb M2 480 Core X4 Threads X8</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$385.883</t>
+          <t>$502.818</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 5 4600g A320m 8gb Ssd 240gb Gabinete Kit</t>
+          <t>Pc Gamer Armada Intel I3 10100 8gb M2 480 Core X4 Threads X8</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ssd 480 Juego Regalo</t>
+          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 5 4600g 1tb 8gb Radeon Rx + Juego </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$527.999</t>
+          <t>$599.999</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ssd 480 Juego Regalo</t>
+          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 5 4600g 1tb 8gb Radeon Rx + Juego </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 480</t>
+          <t xml:space="preserve">Pc Armada Intel Core I3 10105f + H510m + Gtx 1660 + 16gb </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$254.794</t>
+          <t>$1.102.800</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 480</t>
+          <t xml:space="preserve">Pc Armada Intel Core I3 10105f + H510m + Gtx 1660 + 16gb </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pc Intel Armada I5 10400 10th Gen Hd 1tb Hdmi 8gb Ddr4 Win10</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/1tbssd/off+win10/wifi</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$581.999</t>
+          <t>$573.999</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pc Intel Armada I5 10400 10th Gen Hd 1tb Hdmi 8gb Ddr4 Win10</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/1tbssd/off+win10/wifi</t>
         </is>
       </c>
     </row>

--- a/web-scraping-pc.xlsx
+++ b/web-scraping-pc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,867 +453,918 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
+          <t xml:space="preserve">Pc Gamer Armada Intel Core I5 10400 8gb Ssd 480gb 6 Cores </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$1.104.298</t>
+          <t>$697.285</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
+          <t>https://click1.mercadolibre.com.ar/mclics/clicks/external/MLA/count?a=tLVSAuBO8cD4YWKrZoq08GBSQV59NytMKWRKbhxkO1UXGxvrCebdi7%2BqyuP5cI20lQlH9Hk6ByClqY%2FhT5W2QSA%2BWuIKLb1m%2F32clKsKUFWDDCYVGGg7FGorD16rqT40G9XJyYqnxsIkkTQwIBxIMkoTNdfe0UDO5g4IKpJhc46cComXaPg8tjDqxQ%2Bwrp56Kg9vCPi7pUfL9sUIBA9oySTKmdPy07GjiJldVZ60%2FICNQ1J174cFOHC4Xi93BQF9dNasaMOj%2ByzZEANEie1fIXMYfsuCe5MWDwE8Adk0n7GNPAKs8rYOc5mIGHml2eII8etP8vmz7EVG83bxRf6otzrpeiQkZpkItbODNxuE3hHfZsPc1V1gJJ6T76Y9ddldaVmAY%2BzDGGmi2wakWyEaT3dtJ%2FucI9zn9X1bI8A%2BJ4vQzhQf5pM8fjy7Uh0tSMaiRyAQMFBh1A0E%2BliBWkx8nsbaBNsh3iM6qt06wJVqDsd3GYYgu2DuVjXHSHpeZr8Ksk%2Fnp5Xytdpze%2FfF4Kat%2FszhiiTyQ9eJQsP9bKsXhBCg5ep7IttAyrsEIjkKhCzN2BKee4oxrrJgylcq9YjR19T3k35jDa50c0O0jUZhYNa1DsqzyOe%2FyHVqvOV%2BREZlEHh0Ep0i%2FAmNC0Ao9wQsJb8hJRab%2FWwsDcdf6jPNIJw3owFkVAyRSyIFDO0aOKikUNbYsWsT58kRskZc6tgaWcMuog%3D%3D&amp;e=mclics%2Fdifferential-cvr-factor%2B29495%2Cmclics%2Fsearch-list-ad-algorithm%2B16026%2Cmclics%2Fshow-pads-search-list%2B5146%2Cmclics%2Fshow-pads-global%2B5176&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g 12 Nucleo Ram 16gb Ssd 480</t>
+          <t>Pc Armada Intel Core I3 10105 480gb Ssd 8gb Ddr4 Win 10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$699.999</t>
+          <t>$453.462</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g 12 Nucleo Ram 16gb Ssd 480</t>
+          <t>https://click1.mercadolibre.com.ar/mclics/clicks/external/MLA/count?a=WLkEXVvQgZ61GLSEYEPH0EOamFI6cwLX85pHwbE%2FYcSMI6YJgEUmSPVwvyHWjeiJ8UjEjsbBGVpiQB%2Fh3YC59koqM%2BXy0DPnlSDdA7L461L3iexeJQas%2BTf5E6EavDkxlG7yGe2bF5a3e2L00KscMhpoRNKY8wCEmIEHi2g1wmmiEWOW6KpckT1JaUI4aAQBk1kq08Yw7FwjxRPqtexuNWq9rI25mqTrboSpRW4kSctHS6nKG4UXwglBPyyItee3BrmKQGyGFTu0zvLhIrNdPsO40%2F%2B7VVrhk3Pil6FYnuZtUYW%2BbbTjiNyL9Q2PkXvEN3p%2BPVecP6YdJGET81C69dopNXOUzroBejaYjBMDVjzewXxZGPEuvif%2Bs7uT7ZZSx%2BoVJPR3TUE%2FhqgbzocakcW0qcX2JNqPxEv1%2FVp%2FqCrcNdxAfMG1uccmSMfLaFe1dj6ZwplmwFqDyeBiUQ%2FTET101xlXEj44MrxyjTgivopRcpmmXMz7ObgKvSm%2BpR0ITbYybTkXU6tQ6bYu5l9cPMDjvgNG6YYsAlB2sA3FCofbQEx7vialT5n8Auf64HDzLWZikFCAOE1zG1aZED99qFpOdtifZwU5ag%2FeJUKfIYXrw8DU8tz6mPf75IYLU7NY4ZkjW04GtxOhzBMUH1De50Znpl6zWcMJZaen%2BEujtj2%2BrxfjKF6U91tIdpZfHNOXrBDKZfTCS0j3unVeQcK2GXHTJQ%3D%3D&amp;e=mclics%2Fdifferential-cvr-factor%2B29495%2Cmclics%2Fsearch-list-ad-algorithm%2B16026%2Cmclics%2Fshow-pads-search-list%2B5146%2Cmclics%2Fshow-pads-global%2B5176&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 5 4650g 8gb 3200mh 256gb Nvme Vega</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$433.413</t>
+          <t>$700.190</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 5 4650g 8gb 3200mh 256gb Nvme Vega</t>
+          <t>https://click1.mercadolibre.com.ar/mclics/clicks/external/MLA/count?a=FXe3wiwWGYjt3c8ew%2B5uSE8vvBIklyhSLqcvqnNnrWCu34lk79%2Fj8k7RTk6gr8OKjKgiv1OEt07g0zyZIr3d%2BNl3Oo7E3RjYXMT4bj0VMJkaRDNTO9DApsq1ri5K%2BlHja0Iy9j9eShrxRSxfDyWJU8jj4vw36KEVT7NWOR1DYheiqTbyoPZR02HEb9j%2BunTwHEbpsu9mvdoW8boAIglK%2FZNTG157Ryv9VwHLlQjSHCjVcwAX5g14d1TmPd6EYzdsi4oEbUDFdRsuzEuyd5vSbniiGNw1tr8XpsVfDc3oobShYc289doY4aC1S9DOTi2ArVYa6RQ%2Fh8C3nQVvPYTNSFcmlvme0I9%2FHxQMKcCFmZAwK3ofYf9SBAvratvAvRdnTQcTEtZ8eQeFJuGYn0MQ%2Fac1qyHitjL3sx1CGzro8N%2B0dicfxn3eT4QUtjTsQ1dIQ%2ByWg0DXL8AcmNmP8GMY6BcGkbEIle%2BGkw%2B8W%2FFHvvg6iDI3Eji5DOnyj3AA9OcYkxbzky%2FOFx4wFUluXvy9eF5AdvQnutCm8nUb6ocxiGcsASyzQuajF1HbIhbJJLclufKDZ0%2BK7%2FnIo3gq1PikK8Agf7Lq0D2Wj8%2B8Lud3a%2FtFZ1uq328ufGjPP8VXGqDAO9TXbQjztNHHWREg7k2RM8Em8aRENQQzys4OKWiPcyusMAdPEQDrpIcdNBWK2h1ei%2F%2BZYeWF5zSBfP7qFjrfkrHaemi0tL4qJw%3D%3D&amp;e=mclics%2Fdifferential-cvr-factor%2B29495%2Cmclics%2Fsearch-list-ad-algorithm%2B16026%2Cmclics%2Fshow-pads-search-list%2B5146%2Cmclics%2Fshow-pads-global%2B5176&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 5 4600g 16gb 2x8 3200mhz 500gb Nvme - Acuario</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g 12 Nucleo Ram 16gb Ssd 480</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$453.268</t>
+          <t>$699.999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 5 4600g 16gb 2x8 3200mhz 500gb Nvme - Acuario</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-932293921-pc-armada-gamer-amd-ryzen-5-5600g-12-nucleo-ram-16gb-ssd-480-_JM#position=4&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
+          <t>Pc Gamer A10 9700 //ddr4 8gb //ssd 240// Radeon//gab 600w</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$1.104.298</t>
+          <t>$289.000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-927739661-pc-gamer-a10-9700-ddr4-8gb-ssd-240-radeongab-600w-_JM#position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 3 3200g 8gb Ddr4 Ssd 240gb 500w  -acuario</t>
+          <t>Pc Gamer Ryzen 5 4600g 16gb 2x8 3200mhz 500gb Nvme - Acuario</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$384.542</t>
+          <t>$453.268</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pc Gamer Amd Ryzen 3 3200g 8gb Ddr4 Ssd 240gb 500w  -acuario</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1144064529-pc-gamer-ryzen-5-4600g-16gb-2x8-3200mhz-500gb-nvme-acuario-_JM#position=6&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 7 5700g Ram 32gb  960g Ssd Wifi</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$897.599</t>
+          <t>$1.104.298</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 7 5700g Ram 32gb  960g Ssd Wifi</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1104500198-computadora-gamer-pc-solarmax-amd-ryzen-7-5700g-32gb-480-ssd-_JM#position=7&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Intel Core I5 10400 1tb 16gb Ram Ddr4</t>
+          <t>Pc Gamer Amd Ryzen 5 4650g 8gb 3200mh 256gb Nvme Vega</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$536.787</t>
+          <t>$433.413</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Intel Core I5 10400 1tb 16gb Ram Ddr4</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1133252730-pc-gamer-amd-ryzen-5-4650g-8gb-3200mh-256gb-nvme-vega-_JM#position=8&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
+          <t>Pc Armada Gamer Intel Core I5 10400 1tb 16gb Ram Ddr4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$246.184</t>
+          <t>$540.692</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-881660408-pc-armada-gamer-intel-core-i5-10400-1tb-16gb-ram-ddr4-_JM#position=9&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 3 3200g Msi A320 8gb 2400 Ssd 240gb</t>
+          <t>Pc Gamer Armada Intel I5 10400 8gb Ssd 480gb 6 Cores</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$343.920</t>
+          <t>$498.060</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 3 3200g Msi A320 8gb 2400 Ssd 240gb</t>
+          <t>https://click1.mercadolibre.com.ar/mclics/clicks/external/MLA/count?a=%2B2ajSwR1s35w3SqULGdPDn6farxe1nkgfqVO0ufoy2ffr%2FxgdNkkLRuMXZ6WL0NBSGoJu7ROJS0ARvDNJDNT1v3zpnOAOlAw6NYw5PJwxYpdsymj1NlyTz8B8CF%2F0X%2FYqUb0udXhTq%2BguRBMAZw3qNw0OMIcnygzKNjN57U%2B0O33SJyeoonyeH1vha5BYj1QYGJPOOS11aYUyXpR1ljrwyDaANShjARznV9WE1o3EIuhI2MOLSygslLexZ4RJDDYLcQqg7A3NcMlsBXpZAE3Efopq0M6n%2FsVCIGQajHhyedW3DiVvi5QXHgEnivMPsfiDP9bHOdMSzRExEOvnGZYwuECK7Anu8Gkq%2FsTPjF9GdnU%2FofMJLWl3hjPtRtkifFANCvm2Yy86PKhsr%2BE0vHrXwpx4yXk9GVkJPYgnoRRd4nxR485YGUr1%2BHxFf9iPAHUzeBzkkQiOqHlOFvV7oVFg09vPF6loetwvr2fm7OQyytOIEq6pbBpu3EI8X6N5hsh5PxX5gS6LAQw1L9d71WPA1BSshY0YOH70%2BtPaoIoOrAqnBPki%2FHxHo66sKEQ9WJsc8Y4tquHh5fzTmbX3T2BLDRHghWuf6IL9dxCG%2F%2FwKfPHc2eJhZMokUXaqDG3rltVpnK%2Fasw5jrqb9mV236aOoLOnkKfgdSKsnxQAI7pyRaWnWBzZtsEJE2ZFs%2FxGFdGD8txnkvBq721zzUDVp6yk3g%3D%3D&amp;e=mclics%2Fdifferential-cvr-factor%2B29495%2Cmclics%2Fsearch-list-ad-algorithm%2B16026%2Cmclics%2Fshow-pads-search-list%2B5146%2Cmclics%2Fshow-pads-global%2B5176&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 32gb 480 Ssd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$993.798</t>
+          <t>$1.104.298</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
+          <t>https://click1.mercadolibre.com.ar/mclics/clicks/external/MLA/count?a=DLt8%2Bbco3izjTIxgXHvV%2Fm1JuqJ6DTGIAObTQjwzfUrZ7%2FxzG6h8pJIXun5OVjHXAIo10wZYavFf6iNpEelZSAjJIg0uKbwetyk2ZCU0DAg%2BGecXEH5X4d1boket00etlVJ5OB5BvgEsAk9CCOLy%2FkOEiNX5lmYYiIEONCIN0TjHaEvFgMMGm5ro9FU9f3WwA5QguDJ5rXirWpD1rGf4x%2BQtThaEsP9x%2BULF1ISbkGn%2FijgN1Ix1Q1gbLI%2FCGKUTm3qdoIb%2FMzqym6K1QeHH2Vy8LcyuO7K8Y5yBAHjqBJhSh31eEmSL89AoTzKmF1fou1HmZcRQGvwrRBe117ef6jwqQB0DrLYK0eboQPPE0k%2F7%2FzuW5eqaydWdoP6SoMptF2Crx1%2BuSGKYd%2FzrYe%2Fb3tg%2Fv72hmnudnQY9fARbPJvgeeMDE8pOjO%2FxKlJMLJXh2Bu%2FD1fNGk%2BG9%2BVg%2F8ooONGiZVboMCSMPjNoWInTNOcBsOGSkG%2BI%2Fz6TV5IAx7%2FMT6SJ2%2Bny%2BnCgNuR%2BCbwZkkBOf8sGcZrGB8fFeVB3KOf6Ci%2BHDRsAna%2FlrTp%2F9QAmm8peSTCJhjArXwYM4U%2FXcqUhSyLtVZFO9wVIQJk%2Bq25T0JXoH6vcXsZGZQ0O3qMaMtFYWgWS41isL7EXkDJSocRBxMGsl0hHVq%2F3VyYhUi0BtkOqpJqawXv0Chc2aiiPCOgp0eTfY2EiF%2FQeOedkeC8T9AawypTrmlI%3D&amp;e=mclics%2Fdifferential-cvr-factor%2B29495%2Cmclics%2Fsearch-list-ad-algorithm%2B16026%2Cmclics%2Fshow-pads-search-list%2B5146%2Cmclics%2Fshow-pads-global%2B5176&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
+          <t>Pc Armada Gamer Intel Core I5 10400 1tb 16gb Ram Ddr4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$700.190</t>
+          <t>$540.692</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
+          <t>https://click1.mercadolibre.com.ar/mclics/clicks/external/MLA/count?a=alyYXSvGLLD1aeFHqqVs4L4qc01562cK%2FAMCUmI51O5maCjmANKbwgSI%2BFhvkJTF3IehqEht80BxmoZSGhIWEPN8o4Fu7r7dsIXoDhO88pZi%2BT5i7DwYgkUIKdSiSws5SUeYG5x8NiEDisYAGOZOqjduYWqf8kMD%2BbpLUFhLdzGJTAx2y8AbRZKth63gvN3rhWydvMEs5iKUkgypgu0H02PW2NdSBEGgzJwpbbOqc3CFdII10ZKwXSChlwIZApVowPnZ2YWZQUpbCX2P7sVkUIO7cD89fMeI52e72aYCT6%2FDeDWwd4MUFEiqh1oeqqezLWWfgRNUShLOAuZ262oPzReBQ%2FHw2wc4d%2FJ41bXudn4KYtmpda6XLyFEmhKVk7uVYk7kITuojoX80jOrI4lDxa22zt9ji8IquX2obLsXZS58Ja6E%2Br%2BSiqqxpE%2FbDDqfkMsR53zHo9Y6dihzHfZfKdeSBMoNf%2B3IOurLnW%2FCfffXG3UDr1I5SZKdvbZHiL16BHNJmbRP3TySVBJM3sRNk8XPctBOlXxCFL1WXdVgAemHFAXtt28Sh6pqvxG%2BFEUAp2RgFjtOJBVlyFpY%2F8mrU3jpIOUtBRCz4yyH9jYcX1fcb0%2Boy4MdJtd8CyOV%2BOBfzyqiYCt3sq7PwHr04U6olAhOygkqAi022XKBMazIuz9v0DSJFO%2FvxC2aLSEFLAwL9%2B7%2FkO5DS6HCWOoqJHHSUyM%3D&amp;e=mclics%2Fdifferential-cvr-factor%2B29495%2Cmclics%2Fsearch-list-ad-algorithm%2B16026%2Cmclics%2Fshow-pads-search-list%2B5146%2Cmclics%2Fshow-pads-global%2B5176&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pc Cpu Computadora Armada Intel Dual Core 8gb Ssd 240 Wifi</t>
+          <t>Pc Armada Gamer Amd Athlon 3000g 8 Gb + Ssd 240</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$348.797</t>
+          <t>$333.421</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pc Cpu Computadora Armada Intel Dual Core 8gb Ssd 240 Wifi</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1391088905-pc-armada-gamer-amd-athlon-3000g-8-gb-ssd-240-_JM#position=13&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
+          <t>Pc Gamer Armada Amd Ryzen 5 5600g 6/12 Nucleos 16gb Ssd480</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$700.190</t>
+          <t>$465.899</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1163098912-pc-gamer-armada-amd-ryzen-5-5600g-612-nucleos-16gb-ssd480-_JM#position=14&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Computadora Pc Gamer Intel I5 Rx 6700xt 500g Ssd M2 16g Ram</t>
+          <t>Pc Cpu Computadora Armada Intel Dual Core 8gb Ssd 240 Wifi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$999.999</t>
+          <t>$348.797</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Computadora Pc Gamer Intel I5 Rx 6700xt 500g Ssd M2 16g Ram</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1150540039-pc-cpu-computadora-armada-intel-dual-core-8gb-ssd-240-wifi-_JM#position=15&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Intel I9 13ava Z790 64gb M.2 2tb Sata 2tb Rtx 4090 </t>
+          <t>Pc Gamer Amd Ryzen 3 3200g 8gb Ddr4 Ssd 240gb 500w  -acuario</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$5.712.526</t>
+          <t>$384.542</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Intel I9 13ava Z790 64gb M.2 2tb Sata 2tb Rtx 4090 </t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1259130411-pc-gamer-amd-ryzen-3-3200g-8gb-ddr4-ssd-240gb-500w-acuario-_JM#position=16&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 7 5700g 32gb 3200 480g Nvme</t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g 16gb 3200 480g Nvme</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$723.799</t>
+          <t>$659.699</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 7 5700g 32gb 3200 480g Nvme</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-933641653-pc-armada-gamer-amd-ryzen-7-5700g-16gb-3200-480g-nvme-_JM#position=17&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pc Armada Intel Core I3 10105 480gb Ssd 8gb Ddr4 Win 10</t>
+          <t>Pc Armada Gamer Cpu Amd Ryzen 7 5700g 1tb Ssd 16g Ram</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$450.497</t>
+          <t>$545.499</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pc Armada Intel Core I3 10105 480gb Ssd 8gb Ddr4 Win 10</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1417129246-pc-armada-gamer-cpu-amd-ryzen-7-5700g-1tb-ssd-16g-ram-_JM#position=18&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g 16g Vega8 Ssd Y Hdd Ver2.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$587.450</t>
+          <t>$1.087.148</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1129804869-pc-armada-gamer-amd-ryzen-7-5700g-16g-vega8-ssd-y-hdd-ver20-_JM#position=19&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd Fortnite Csgo Lol</t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g Ram 32gb  960g Ssd Wifi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$337.261</t>
+          <t>$897.599</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd Fortnite Csgo Lol</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1116709430-pc-armada-gamer-amd-ryzen-7-5700g-ram-32gb-960g-ssd-wifi-_JM#position=20&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pc Gamer Intel I7 16gb 1tb O Ssd Gt1030 2gb + Adic. - Plus</t>
+          <t>Pc Gamer Amd Ryzen 5 5600g 16gb A520m Ssd 240gb</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$1.128.145</t>
+          <t>$474.939</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pc Gamer Intel I7 16gb 1tb O Ssd Gt1030 2gb + Adic. - Plus</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-935712138-pc-gamer-amd-ryzen-5-5600g-16gb-a520m-ssd-240gb-_JM#position=21&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/480gb/off+win10/wifi</t>
+          <t>Pc Armada Gamer Cpu Amd Ryzen 5 5600g 16gb Vega 7 M2 480g</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$799.999</t>
+          <t>$463.499</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/480gb/off+win10/wifi</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1140741426-pc-armada-gamer-cpu-amd-ryzen-5-5600g-16gb-vega-7-m2-480g-_JM#position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 5 4600g A320m 8gb Ssd 240gb Gabinete Kit</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g 16gb Vega 7 480g</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$407.122</t>
+          <t>$452.999</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 5 4600g A320m 8gb Ssd 240gb Gabinete Kit</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1110348058-pc-armada-gamer-amd-ryzen-5-5600g-16gb-vega-7-480g-_JM#position=23&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Aerocool Ryzen 5 5600g 8gb Ram Ssd 240gb </t>
+          <t>Computadora Gamer Pc Solarmax Amd Ryzen 7 5700g 16gb 480 Ssd</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$416.000</t>
+          <t>$700.190</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Aerocool Ryzen 5 5600g 8gb Ram Ssd 240gb </t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1104493671-computadora-gamer-pc-solarmax-amd-ryzen-7-5700g-16gb-480-ssd-_JM#position=24&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g Ssd 480gb 16gb Ddr4 Prem</t>
+          <t xml:space="preserve">Pc Gamer Intel I9 13ava Z790 64gb M.2 2tb Sata 2tb Rtx 4090 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$685.858</t>
+          <t>$5.712.526</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g Ssd 480gb 16gb Ddr4 Prem</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1427572136-pc-gamer-intel-i9-13ava-z790-64gb-m2-2tb-sata-2tb-rtx-4090-_JM#position=25&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Armada Intel I5 11400 16gb Nvme 512 Core X6 </t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g 16gb Ram Ssd 480g Ver2.0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$593.864</t>
+          <t>$899.298</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Gamer Armada Intel I5 11400 16gb Nvme 512 Core X6 </t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1110982174-pc-armada-gamer-amd-ryzen-7-5700g-16gb-ram-ssd-480g-ver20-_JM#position=26&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pc Intel Gamer I5 10th Rx6400 4gb Gddr6 Ssd480 Ram 16gb Hdmi</t>
+          <t>Pc Gamer Armada Intel I5 10400 16 Gb Ddr4 Ssd 480 Nvme</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$1.199.999</t>
+          <t>$587.450</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pc Intel Gamer I5 10th Rx6400 4gb Gddr6 Ssd480 Ram 16gb Hdmi</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1322263880-pc-gamer-armada-intel-i5-10400-16-gb-ddr4-ssd-480-nvme-_JM#position=27&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ssd 480 Radeon Vega</t>
+          <t>Pc Armada Gamer Ryzen 7 5700g 32gb Vega 8 960gb Wifi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$612.333</t>
+          <t>$897.153</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ssd 480 Radeon Vega</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1128472052-pc-armada-gamer-ryzen-7-5700g-32gb-vega-8-960gb-wifi-_JM#position=28&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 480 Radeon Vega</t>
+          <t>Pc Armada Gamer Amd Ryzen 7 5700g 16gb Ram Ssd 480g</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$402.149</t>
+          <t>$528.999</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 480 Radeon Vega</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1110953147-pc-armada-gamer-amd-ryzen-7-5700g-16gb-ram-ssd-480g-_JM#position=29&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pc Gamer Cpu Amd Ryzen 5 5600g 6/12 Nucleos 16g Wifi 480g</t>
+          <t>Pc Armada Intel Core I3 10105 480gb Ssd 8gb Ddr4 Win 10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$519.499</t>
+          <t>$453.462</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pc Gamer Cpu Amd Ryzen 5 5600g 6/12 Nucleos 16g Wifi 480g</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1115588209-pc-armada-intel-core-i3-10105-480gb-ssd-8gb-ddr4-win-10-_JM#position=30&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 480</t>
+          <t>Pc Armada Gamer Cpu Amd Ryzen 5 5600g 16g Ssd480 Vega Wifi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$284.840</t>
+          <t>$471.499</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g 16 Gb + Ssd 480</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1140728485-pc-armada-gamer-cpu-amd-ryzen-5-5600g-16g-ssd480-vega-wifi-_JM#position=31&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pc Gamer Xpg Intel Core I5-11600k 16gb M.2 500gb + Ssd 480gb</t>
+          <t>Pc Gamer Escritorio Cpu Amd Computadora Nueva Armada Ssd</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$611.188</t>
+          <t>$349.418</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pc Gamer Xpg Intel Core I5-11600k 16gb M.2 500gb + Ssd 480gb</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-827869432-pc-gamer-escritorio-cpu-amd-computadora-nueva-armada-ssd-_JM#position=32&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pc Armada Cpu Amd Full Gamer Ryzen 3 3200g 16gb Ddr4 1080p</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g Ssd 480gb 16gb Ddr4 Prem</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$729.999</t>
+          <t>$685.858</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pc Armada Cpu Amd Full Gamer Ryzen 3 3200g 16gb Ddr4 1080p</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1420689098-pc-armada-gamer-amd-ryzen-5-4600g-ssd-480gb-16gb-ddr4-prem-_JM#position=33&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g 16gb Vega 7</t>
+          <t>Pc Armada Gamer Hogar Amd Ryzen 5 5600g 16gb Vega 7</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$496.199</t>
+          <t>$443.799</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g 16gb Vega 7</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1140747970-pc-armada-gamer-hogar-amd-ryzen-5-5600g-16gb-vega-7-_JM#position=34&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pc Gamer Diseño Cpu Amd Ryzen 9 7900 Am5 16gb M2 1tb</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g 8gb Vega 7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$1.241.499</t>
+          <t>$421.799</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pc Gamer Diseño Cpu Amd Ryzen 9 7900 Am5 16gb M2 1tb</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1124736289-pc-armada-gamer-amd-ryzen-5-5600g-8gb-vega-7-_JM#position=35&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Intel Core I3 12100 Con 8gb Ram Y Ssd 240gb</t>
+          <t>Pc Gamer Computadora Juegos Amd A8 8gb 1tb O Ssd Fortnite Csgo Lol</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$484.535</t>
+          <t>$337.261</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Intel Core I3 12100 Con 8gb Ram Y Ssd 240gb</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-752053657-pc-gamer-computadora-juegos-amd-a8-8gb-1tb-o-ssd-fortnite-csgo-lol-_JM#position=36&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Pro Intel 3.6ghz Dual Core Ssd 240 Ram 8gb Ddr4 </t>
+          <t>Pc Escritorio Gamer Computadora Completa Cpu Amd Ryzen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$419.999</t>
+          <t>$520.208</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Pro Intel 3.6ghz Dual Core Ssd 240 Ram 8gb Ddr4 </t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-826742552-pc-escritorio-gamer-computadora-completa-cpu-amd-ryzen-_JM#position=37&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Intel Dual Core Hd Graphics Ram Ddr4 Hdmi</t>
+          <t>Pc Gamer Ryzen 3 3200g Msi A320 8gb 2400 Ssd 240gb</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$339.999</t>
+          <t>$343.920</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Intel Dual Core Hd Graphics Ram Ddr4 Hdmi</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-812939078-pc-gamer-ryzen-3-3200g-msi-a320-8gb-2400-ssd-240gb-_JM#position=38&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 7 5700g 32gb Vega 8 960gb Wifi + Led Gamer 24</t>
+          <t xml:space="preserve">Pc Gamer Aerocool Ryzen 5 5600g 8gb Ram Ssd 240gb </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$1.280.400</t>
+          <t>$416.000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pc Gamer Ryzen 7 5700g 32gb Vega 8 960gb Wifi + Led Gamer 24</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1368387697-pc-gamer-aerocool-ryzen-5-5600g-8gb-ram-ssd-240gb-_JM#position=39&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ddr4 Ssd 480gb Prem</t>
+          <t>Pc Armada Gamer Cpu Amd Ryzen 7 5700g 16gb Ssd Y Hdd Ver2.0</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$759.274</t>
+          <t>$982.258</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ddr4 Ssd 480gb Prem</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1140785221-pc-armada-gamer-cpu-amd-ryzen-7-5700g-16gb-ssd-y-hdd-ver20-_JM#position=40&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 11400 16gb Ssd 1 Tb Core X6</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 4600g 16gb Nvme 480 Radeon Vega</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$613.121</t>
+          <t>$593.999</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I5 11400 16gb Ssd 1 Tb Core X6</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1145210982-pc-armada-gamer-amd-ryzen-5-4600g-16gb-nvme-480-radeon-vega-_JM#position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Amd Ryzen 5 5600g 8gb Ddr4 Ssd 240gb Premium</t>
+          <t>Pc Gamer Cpu Amd Ryzen 5 5600g 6/12 Nucleos 16g Wifi 480g</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$701.314</t>
+          <t>$519.499</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Amd Ryzen 5 5600g 8gb Ddr4 Ssd 240gb Premium</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1184445826-pc-gamer-cpu-amd-ryzen-5-5600g-612-nucleos-16g-wifi-480g-_JM#position=42&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 3 3200g 16gb Ddr4 Ssd Nvme 240 Gb</t>
+          <t>Pc Gamer Armada Amd Ryzen 5 5600g 16gb Ssd 480 Radeon Vega</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$486.897</t>
+          <t>$612.333</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 3 3200g 16gb Ddr4 Ssd Nvme 240 Gb</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1100526113-pc-gamer-armada-amd-ryzen-5-5600g-16gb-ssd-480-radeon-vega-_JM#position=43&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pc Intel Armada I5 10400 10th Gen Hd 1tb Hdmi 8gb Ddr4 Win10</t>
+          <t xml:space="preserve">Pc Gamer Armada Intel I5 11400 16gb Nvme 512 Core X6 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$599.999</t>
+          <t>$593.864</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pc Intel Armada I5 10400 10th Gen Hd 1tb Hdmi 8gb Ddr4 Win10</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1372852709-pc-gamer-armada-intel-i5-11400-16gb-nvme-512-core-x6-_JM#position=44&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ssd 480 Juego Regalo</t>
+          <t xml:space="preserve">Pc Armada Pro Intel 3.6ghz Dual Core Ssd 240 Ram 8gb Ddr4 </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$599.999</t>
+          <t>$419.999</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ssd 480 Juego Regalo</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-683420951-pc-armada-pro-intel-36ghz-dual-core-ssd-240-ram-8gb-ddr4-_JM#position=45&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g Ssd 240 8gb Radeon Rx Vega</t>
+          <t>Pc Armada Gamer Cpu Amd Ryzen 7 5700g 16g Vega Wifi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$272.307</t>
+          <t>$538.299</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Athlon 3000g Ssd 240 8gb Radeon Rx Vega</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1140735194-pc-armada-gamer-cpu-amd-ryzen-7-5700g-16g-vega-wifi-_JM#position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ddr4 Nvme 240 Rx Vega</t>
+          <t>Pc Armada Cpu Amd Full Gamer Ryzen 3 3200g 16gb Ddr4 1080p</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$375.381</t>
+          <t>$729.999</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 4600g 8gb Ddr4 Nvme 240 Rx Vega</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-882319673-pc-armada-cpu-amd-full-gamer-ryzen-3-3200g-16gb-ddr4-1080p-_JM#position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I3 10100 8gb M2 480 Core X4 Threads X8</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g 6/12 Nucleos 16gb</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$502.818</t>
+          <t>$482.399</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pc Gamer Armada Intel I3 10100 8gb M2 480 Core X4 Threads X8</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1162869889-pc-armada-gamer-amd-ryzen-5-5600g-612-nucleos-16gb-_JM#position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 5 4600g 1tb 8gb Radeon Rx + Juego </t>
+          <t>Pc Gamer Cpu Amd Ryzen 5 5600g 16gb Ssd960 Vega 7</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$599.999</t>
+          <t>$469.499</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Gamer Amd Ryzen 5 4600g 1tb 8gb Radeon Rx + Juego </t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1140741439-pc-gamer-cpu-amd-ryzen-5-5600g-16gb-ssd960-vega-7-_JM#position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Intel Core I3 10105f + H510m + Gtx 1660 + 16gb </t>
+          <t>Pc Gamer Armada Intel I5 11400 16gb Ssd 1 Tb Core X6</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$1.102.800</t>
+          <t>$613.121</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pc Armada Intel Core I3 10105f + H510m + Gtx 1660 + 16gb </t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1372852829-pc-gamer-armada-intel-i5-11400-16gb-ssd-1-tb-core-x6-_JM#position=50&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/1tbssd/off+win10/wifi</t>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g 16gb Vega 7</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$573.999</t>
+          <t>$496.199</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pc Armada Gamer Amd Ryzen 5 5600g/16gb/1tbssd/off+win10/wifi</t>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1128483118-pc-armada-gamer-amd-ryzen-5-5600g-16gb-vega-7-_JM#position=51&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Pc Gamer Xpg Intel Core I5-11600k 16gb M.2 500gb + Ssd 480gb</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>$611.188</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1400641272-pc-gamer-xpg-intel-core-i5-11600k-16gb-m2-500gb-ssd-480gb-_JM#position=52&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pc Armada Gamer Amd Ryzen 5 5600g 8g Ram 480g Oficina Ver2.0</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>$676.668</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1386772781-pc-armada-gamer-amd-ryzen-5-5600g-8g-ram-480g-oficina-ver20-_JM#position=53&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Pc Gamer Diseño Cpu Amd Ryzen 9 7900 Am5 16gb M2 1tb</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>$1.183.599</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://articulo.mercadolibre.com.ar/MLA-1313921925-pc-gamer-diseno-cpu-amd-ryzen-9-7900-am5-16gb-m2-1tb-_JM#position=54&amp;search_layout=grid&amp;type=item&amp;tracking_id=f12d81c8-60c5-44e1-aba8-9e779bcd837e</t>
         </is>
       </c>
     </row>
